--- a/Plantraining.xlsx
+++ b/Plantraining.xlsx
@@ -11,13 +11,117 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="33">
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>training_id</t>
+  </si>
+  <si>
+    <t>hasChild</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>th_exercise_id</t>
+  </si>
+  <si>
+    <t>equip_cfg_id</t>
+  </si>
+  <si>
+    <t>rule</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>order_num</t>
+  </si>
+  <si>
+    <t>finishDateTime</t>
+  </si>
+  <si>
+    <t>restTime</t>
+  </si>
+  <si>
+    <t>restTimeAfterWarming</t>
+  </si>
+  <si>
+    <t>restTimeAfterExercise</t>
+  </si>
+  <si>
+    <t>hard_sense</t>
+  </si>
+  <si>
+    <t>isMeasureWeight</t>
+  </si>
+  <si>
+    <t>isMeasureDistance</t>
+  </si>
+  <si>
+    <t>isMeasureTime</t>
+  </si>
+  <si>
+    <t>isMeasureReps</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>oneRepMax</t>
+  </si>
+  <si>
+    <t>hard_sense_auto</t>
+  </si>
+  <si>
+    <t>avgRestTime</t>
+  </si>
+  <si>
+    <t>exercisesAmount</t>
+  </si>
+  <si>
+    <t>setsAmount</t>
+  </si>
+  <si>
+    <t>repsAmount</t>
+  </si>
+  <si>
+    <t>tonnage</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>3.3333332538604736</t>
+  </si>
+  <si>
+    <t>3.6666667461395264</t>
+  </si>
+  <si>
+    <t>259.1999816894531</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26,16 +130,65 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF999999"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -43,12 +196,174 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -350,12 +665,1620 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4">
+        <v>266</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1700035323269</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1700035354427</v>
+      </c>
+      <c r="L2" s="4">
+        <v>300</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="4">
+        <v>1</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4">
+        <v>190</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1700035356164</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1700035466380</v>
+      </c>
+      <c r="L3" s="4">
+        <v>180</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="4">
+        <v>1</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="4">
+        <v>4</v>
+      </c>
+      <c r="W3" s="4">
+        <v>3492</v>
+      </c>
+      <c r="X3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4">
+        <v>180</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1700035583391</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>180</v>
+      </c>
+      <c r="M4" s="4">
+        <v>120</v>
+      </c>
+      <c r="N4" s="4">
+        <v>120</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" s="4">
+        <v>4</v>
+      </c>
+      <c r="W4" s="4">
+        <v>5472</v>
+      </c>
+      <c r="X4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>300</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4">
+        <v>467</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1700035759987</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1700035816996</v>
+      </c>
+      <c r="L5" s="4">
+        <v>180</v>
+      </c>
+      <c r="M5" s="4">
+        <v>120</v>
+      </c>
+      <c r="N5" s="4">
+        <v>120</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="4">
+        <v>1</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>2609</v>
+      </c>
+      <c r="X5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>36</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>216</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4">
+        <v>323</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1700036051816</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1700036160394</v>
+      </c>
+      <c r="L6" s="4">
+        <v>180</v>
+      </c>
+      <c r="M6" s="4">
+        <v>120</v>
+      </c>
+      <c r="N6" s="4">
+        <v>120</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>3438</v>
+      </c>
+      <c r="X6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>132</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="4">
+        <v>563</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1700036312474</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1700036365244</v>
+      </c>
+      <c r="L7" s="4">
+        <v>180</v>
+      </c>
+      <c r="M7" s="4">
+        <v>120</v>
+      </c>
+      <c r="N7" s="4">
+        <v>120</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>3254</v>
+      </c>
+      <c r="X7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>72</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>396</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4">
+        <v>452</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1702128142332</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1702128311192</v>
+      </c>
+      <c r="L8" s="4">
+        <v>180</v>
+      </c>
+      <c r="M8" s="4">
+        <v>120</v>
+      </c>
+      <c r="N8" s="4">
+        <v>120</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="4">
+        <v>1</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W8" s="4">
+        <v>8223</v>
+      </c>
+      <c r="X8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>30</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>80</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4">
+        <v>454</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1702128621407</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1702128713676</v>
+      </c>
+      <c r="L9" s="4">
+        <v>180</v>
+      </c>
+      <c r="M9" s="4">
+        <v>120</v>
+      </c>
+      <c r="N9" s="4">
+        <v>120</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="4">
+        <v>1</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V9" s="4">
+        <v>4</v>
+      </c>
+      <c r="W9" s="4">
+        <v>117539</v>
+      </c>
+      <c r="X9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>60</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>180</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="4">
+        <v>475</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1702128788238</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1702128827510</v>
+      </c>
+      <c r="L10" s="4">
+        <v>180</v>
+      </c>
+      <c r="M10" s="4">
+        <v>120</v>
+      </c>
+      <c r="N10" s="4">
+        <v>120</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="4">
+        <v>1</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="4">
+        <v>4550</v>
+      </c>
+      <c r="X10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>30</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>180</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="4">
+        <v>467</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1702128962457</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1702128997546</v>
+      </c>
+      <c r="L11" s="4">
+        <v>180</v>
+      </c>
+      <c r="M11" s="4">
+        <v>120</v>
+      </c>
+      <c r="N11" s="4">
+        <v>120</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" s="4">
+        <v>1</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V11" s="4">
+        <v>3</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>60</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="4">
+        <v>323</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1702129012494</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1702129064661</v>
+      </c>
+      <c r="L12" s="4">
+        <v>180</v>
+      </c>
+      <c r="M12" s="4">
+        <v>120</v>
+      </c>
+      <c r="N12" s="4">
+        <v>120</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="4">
+        <v>1</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V12" s="4">
+        <v>3</v>
+      </c>
+      <c r="W12" s="4">
+        <v>2330</v>
+      </c>
+      <c r="X12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>30</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>90</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="4">
+        <v>210</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1702129082656</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1702129117524</v>
+      </c>
+      <c r="L13" s="4">
+        <v>180</v>
+      </c>
+      <c r="M13" s="4">
+        <v>120</v>
+      </c>
+      <c r="N13" s="4">
+        <v>120</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" s="4">
+        <v>1</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V13" s="4">
+        <v>4</v>
+      </c>
+      <c r="W13" s="4">
+        <v>4633</v>
+      </c>
+      <c r="X13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>18</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>9</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="4">
+        <v>301</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1702129402556</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1702129532126</v>
+      </c>
+      <c r="L14" s="4">
+        <v>180</v>
+      </c>
+      <c r="M14" s="4">
+        <v>120</v>
+      </c>
+      <c r="N14" s="4">
+        <v>120</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" s="4">
+        <v>1</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V14" s="4">
+        <v>3</v>
+      </c>
+      <c r="W14" s="4">
+        <v>2416</v>
+      </c>
+      <c r="X14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>30</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>210</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="4">
+        <v>186</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1702129582592</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1702129617460</v>
+      </c>
+      <c r="L15" s="4">
+        <v>180</v>
+      </c>
+      <c r="M15" s="4">
+        <v>120</v>
+      </c>
+      <c r="N15" s="4">
+        <v>120</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" s="4">
+        <v>1</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V15" s="4">
+        <v>3</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="4">
+        <v>216</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1702129662339</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1702129748244</v>
+      </c>
+      <c r="L16" s="4">
+        <v>180</v>
+      </c>
+      <c r="M16" s="4">
+        <v>120</v>
+      </c>
+      <c r="N16" s="4">
+        <v>120</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="4">
+        <v>1</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V16" s="4">
+        <v>3</v>
+      </c>
+      <c r="W16" s="4">
+        <v>4316</v>
+      </c>
+      <c r="X16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>26</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="4">
+        <v>458</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1702129849595</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1702129930509</v>
+      </c>
+      <c r="L17" s="4">
+        <v>180</v>
+      </c>
+      <c r="M17" s="4">
+        <v>120</v>
+      </c>
+      <c r="N17" s="4">
+        <v>120</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17" s="4">
+        <v>1</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V17" s="4">
+        <v>3</v>
+      </c>
+      <c r="W17" s="4">
+        <v>1932</v>
+      </c>
+      <c r="X17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>36</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8">
+        <v>18</v>
+      </c>
+      <c r="C18" s="8">
+        <v>10</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="8">
+        <v>559</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1702129940186</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1702129972175</v>
+      </c>
+      <c r="L18" s="8">
+        <v>180</v>
+      </c>
+      <c r="M18" s="8">
+        <v>120</v>
+      </c>
+      <c r="N18" s="8">
+        <v>120</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="8">
+        <v>1</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="U18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W18" s="8">
+        <v>5600</v>
+      </c>
+      <c r="X18" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>24</v>
+      </c>
+      <c r="AA18" s="8">
+        <v>380</v>
+      </c>
+      <c r="AB18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
